--- a/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.01698834285645207</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1679157698378613</v>
+        <v>0.1679157698378612</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08801604871219366</v>
+        <v>0.08801604871219365</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003626374487699827</v>
+        <v>0.003677265051698074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.121745600501345</v>
+        <v>0.114336620682607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06206302615777042</v>
+        <v>0.0613481189368594</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04683927298733429</v>
+        <v>0.04651813071664412</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2295155971109241</v>
+        <v>0.2378541781465901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1199697924709453</v>
+        <v>0.1237605868143049</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03360777086242927</v>
+        <v>0.03071901334710633</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1122048005169759</v>
+        <v>0.1124266760154932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08058063738508775</v>
+        <v>0.07936142788515328</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.087349084186698</v>
+        <v>0.08334653433790012</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1767758627901933</v>
+        <v>0.1768771822633359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1227173580939464</v>
+        <v>0.1206072981575441</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.1818021837188089</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1330557491513691</v>
+        <v>0.133055749151369</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06440416970779035</v>
+        <v>0.06492388124659423</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1548027860632555</v>
+        <v>0.1547490012208287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1162830347590698</v>
+        <v>0.1164277221244641</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1102291388547342</v>
+        <v>0.1135476423215107</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.207498507772377</v>
+        <v>0.2065576570037121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1498425527743176</v>
+        <v>0.1524087231760075</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1232384650072744</v>
+        <v>0.1207606805552972</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2293566839822217</v>
+        <v>0.2279781711269908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1850135283908945</v>
+        <v>0.1844191237637151</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1779794525768032</v>
+        <v>0.1763587137746009</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2793843784748758</v>
+        <v>0.2769291875984033</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2206917413528174</v>
+        <v>0.2230385184522225</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.3293408390034147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2661345056567531</v>
+        <v>0.266134505656753</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1724331055274225</v>
+        <v>0.1748206408525466</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2997773691166863</v>
+        <v>0.3001417846716338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2441138354237266</v>
+        <v>0.2438602789518981</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2329428494950907</v>
+        <v>0.233855772088105</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3596471832665515</v>
+        <v>0.3574909868490885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.286452588074783</v>
+        <v>0.2882347379883387</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.3591577575939535</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.282551103230841</v>
+        <v>0.2825511032308411</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1686216993408771</v>
+        <v>0.168500652063651</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3250797033376698</v>
+        <v>0.3251465710843032</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2602908120272331</v>
+        <v>0.2598801411536211</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2376189471535818</v>
+        <v>0.2326635671726084</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.394389582500592</v>
+        <v>0.3948422269544539</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3057382215562133</v>
+        <v>0.3068857881969148</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.3290131822253207</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5583442769615101</v>
+        <v>0.55834427696151</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4665303163687373</v>
+        <v>0.4665303163687372</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2856781333479769</v>
+        <v>0.2880824174213188</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5264357748137034</v>
+        <v>0.5208284206842265</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4377583915602236</v>
+        <v>0.4381206650523334</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3699936575801329</v>
+        <v>0.3802817994549644</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5936545644131409</v>
+        <v>0.5897219585423693</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4919690198358053</v>
+        <v>0.4939261594988399</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.2810410391840895</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.2127422016770779</v>
+        <v>0.2127422016770778</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.129867320865736</v>
+        <v>0.1292144771635987</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2660306105763812</v>
+        <v>0.2682196122602832</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.204175684077065</v>
+        <v>0.2040562668892864</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1525644645291823</v>
+        <v>0.1525813764115688</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2930435315698691</v>
+        <v>0.2933860130067676</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2220594526485106</v>
+        <v>0.2212876510752373</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1479</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>44134</v>
+        <v>41448</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47807</v>
+        <v>47257</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19101</v>
+        <v>18970</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>83202</v>
+        <v>86225</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>92413</v>
+        <v>95333</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16027</v>
+        <v>14650</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>56297</v>
+        <v>56408</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>78858</v>
+        <v>77665</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41656</v>
+        <v>39747</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88694</v>
+        <v>88745</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>120094</v>
+        <v>118029</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>39984</v>
+        <v>40307</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>96472</v>
+        <v>96438</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>144659</v>
+        <v>144839</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>68434</v>
+        <v>70495</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>129312</v>
+        <v>128725</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>186408</v>
+        <v>189601</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>86343</v>
+        <v>84607</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>169010</v>
+        <v>167994</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>265958</v>
+        <v>265103</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>124695</v>
+        <v>123560</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>205874</v>
+        <v>204065</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>317245</v>
+        <v>320619</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>105071</v>
+        <v>106526</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>182521</v>
+        <v>182743</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>297380</v>
+        <v>297071</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>141943</v>
+        <v>142499</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>218973</v>
+        <v>217660</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>348957</v>
+        <v>351128</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>68643</v>
+        <v>68593</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>142764</v>
+        <v>142793</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>220270</v>
+        <v>219923</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>96730</v>
+        <v>94713</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>173202</v>
+        <v>173401</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>258730</v>
+        <v>259701</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>88617</v>
+        <v>89363</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>244587</v>
+        <v>241982</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>339178</v>
+        <v>339459</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>114771</v>
+        <v>117963</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>275817</v>
+        <v>273990</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>381181</v>
+        <v>382697</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>458790</v>
+        <v>456484</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>994144</v>
+        <v>1002324</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1484299</v>
+        <v>1483431</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>538974</v>
+        <v>539034</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1095090</v>
+        <v>1096370</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1614309</v>
+        <v>1608698</v>
       </c>
     </row>
     <row r="36">
